--- a/peci/related_work.xlsx
+++ b/peci/related_work.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26930"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="202" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D4E964EE-6A2A-42EA-A6FC-AACC136B8F4A}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uapt33090-my.sharepoint.com/personal/j_gaspar_ua_pt/Documents/Desktop/UA/leci_3ano/peci/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="235" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5AECFB65-6DF5-4F58-95F7-9D5951451539}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="44">
   <si>
     <t>Quem procurou?</t>
   </si>
@@ -153,6 +158,12 @@
     <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC8125009/</t>
   </si>
   <si>
+    <t>Guilherme Santos</t>
+  </si>
+  <si>
+    <t>Human radar vital signs</t>
+  </si>
+  <si>
     <t>Human Vital Signs Detection Methods and Potential Using Radars</t>
   </si>
   <si>
@@ -193,6 +204,15 @@
   </si>
   <si>
     <t>https://www.mdpi.com/2072-4292/12/14/2279</t>
+  </si>
+  <si>
+    <t>Radar detection, Data mining, Signal processing algorithms</t>
+  </si>
+  <si>
+    <t>Multiple Target Vital Sign Detection Using Ultra-Wideband Radar</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/abstract/document/10007468</t>
   </si>
 </sst>
 </file>
@@ -243,7 +263,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -280,22 +300,56 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
       </right>
       <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -304,7 +358,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -321,30 +375,33 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -661,17 +718,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:F13"/>
+  <dimension ref="A2:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
-    <col min="3" max="3" width="86.28515625" customWidth="1"/>
-    <col min="4" max="4" width="70.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="91.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="74.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="52.28515625" bestFit="1" customWidth="1"/>
   </cols>
@@ -711,13 +768,13 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="4">
@@ -728,145 +785,174 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="2">
         <v>2005</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="8" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="2">
         <v>2020</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="4">
         <v>2019</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="12"/>
+      <c r="A8" s="9"/>
       <c r="B8" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="10">
         <v>2021</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="11" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="D9" s="14" t="s">
+      <c r="B9" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E9">
+      <c r="C9" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="10">
         <v>2020</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="F9" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="B10" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="10" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="D10" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10">
+      <c r="D10" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="10">
         <v>2021</v>
       </c>
-      <c r="F10" s="15" t="s">
-        <v>28</v>
+      <c r="F10" s="11" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="B11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="B11" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E11">
+      <c r="C11" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="10">
         <v>2021</v>
       </c>
-      <c r="F11" s="15" t="s">
-        <v>32</v>
+      <c r="F11" s="11" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="B12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12">
+      <c r="B12" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="10">
         <v>2021</v>
       </c>
-      <c r="F12" s="15" t="s">
-        <v>35</v>
+      <c r="F12" s="11" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="B13" t="s">
+      <c r="B13" s="14" t="s">
         <v>21</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13">
+        <v>38</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="14">
         <v>2020</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>38</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="1" customFormat="1" ht="15">
+      <c r="B14" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="10">
+        <v>2022</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -882,6 +968,7 @@
     <hyperlink ref="F11" r:id="rId9" xr:uid="{E872947A-45E6-41AD-AA4C-7B149EA4C3E8}"/>
     <hyperlink ref="F12" r:id="rId10" xr:uid="{78A49DE7-8855-4656-AEE4-CDC421362DCB}"/>
     <hyperlink ref="F13" r:id="rId11" xr:uid="{F9A6403E-615C-491D-B052-60BB5CD2F09C}"/>
+    <hyperlink ref="F14" r:id="rId12" xr:uid="{C1644DD5-0DA3-4505-8A48-73DE0D97DB6C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/peci/related_work.xlsx
+++ b/peci/related_work.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uapt33090-my.sharepoint.com/personal/j_gaspar_ua_pt/Documents/Desktop/UA/leci_3ano/peci/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="235" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5AECFB65-6DF5-4F58-95F7-9D5951451539}"/>
+  <xr:revisionPtr revIDLastSave="256" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4279AE2E-CCA0-48C7-9FFC-D9F4C86AF0D4}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="51">
   <si>
     <t>Quem procurou?</t>
   </si>
@@ -213,6 +213,27 @@
   </si>
   <si>
     <t>https://ieeexplore.ieee.org/abstract/document/10007468</t>
+  </si>
+  <si>
+    <t>Hugo Rodrigues</t>
+  </si>
+  <si>
+    <t>Smart home using radar detection</t>
+  </si>
+  <si>
+    <t>CapsFall: Fall Detection Using Ultra-Wideband Radar and Capsule Network</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/8703827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                 Smart home using radar detection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Automatic Arm Motion Recognition Using Radar for Smart Home Technologies</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/9078893</t>
   </si>
 </sst>
 </file>
@@ -358,7 +379,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -384,7 +405,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -403,6 +423,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -718,10 +740,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:F14"/>
+  <dimension ref="B2:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -733,7 +755,7 @@
     <col min="6" max="6" width="52.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6">
+    <row r="2" spans="2:6">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -750,7 +772,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="2:6">
       <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
@@ -767,7 +789,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="2:6">
       <c r="B4" s="6" t="s">
         <v>5</v>
       </c>
@@ -784,7 +806,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="2:6">
       <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
@@ -801,7 +823,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="2:6">
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
@@ -818,7 +840,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="2:6">
       <c r="B7" s="4" t="s">
         <v>12</v>
       </c>
@@ -835,124 +857,157 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="9"/>
-      <c r="B8" s="10" t="s">
+    <row r="8" spans="2:6">
+      <c r="B8" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="9">
         <v>2021</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
-      <c r="B9" s="13" t="s">
+    <row r="9" spans="2:6">
+      <c r="B9" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="9">
         <v>2020</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
-      <c r="B10" s="10" t="s">
+    <row r="10" spans="2:6">
+      <c r="B10" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="9">
         <v>2021</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F10" s="10" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
-      <c r="B11" s="10" t="s">
+    <row r="11" spans="2:6">
+      <c r="B11" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="9">
         <v>2021</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="F11" s="10" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
-      <c r="B12" s="10" t="s">
+    <row r="12" spans="2:6">
+      <c r="B12" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="9">
         <v>2021</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="F12" s="10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
-      <c r="B13" s="14" t="s">
+    <row r="13" spans="2:6">
+      <c r="B13" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="13">
         <v>2020</v>
       </c>
-      <c r="F13" s="15" t="s">
+      <c r="F13" s="14" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="1" customFormat="1" ht="15">
-      <c r="B14" s="10" t="s">
+    <row r="14" spans="2:6" s="1" customFormat="1" ht="15">
+      <c r="B14" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E14" s="9">
         <v>2022</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="F14" s="10" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="15">
+      <c r="B15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15">
+        <v>2019</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="15">
+      <c r="B16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16">
+        <v>2020</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -969,6 +1024,8 @@
     <hyperlink ref="F12" r:id="rId10" xr:uid="{78A49DE7-8855-4656-AEE4-CDC421362DCB}"/>
     <hyperlink ref="F13" r:id="rId11" xr:uid="{F9A6403E-615C-491D-B052-60BB5CD2F09C}"/>
     <hyperlink ref="F14" r:id="rId12" xr:uid="{C1644DD5-0DA3-4505-8A48-73DE0D97DB6C}"/>
+    <hyperlink ref="F15" r:id="rId13" xr:uid="{EEEAC069-3097-4778-80F0-F3EA28A67661}"/>
+    <hyperlink ref="F16" r:id="rId14" xr:uid="{C5E83848-C046-42E8-82EE-9702EF37AAA4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
